--- a/medicine/Psychotrope/Trophée_Birra_Moretti/Trophée_Birra_Moretti.xlsx
+++ b/medicine/Psychotrope/Trophée_Birra_Moretti/Trophée_Birra_Moretti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Troph%C3%A9e_Birra_Moretti</t>
+          <t>Trophée_Birra_Moretti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le trophée Birra Moretti est un tournoi amical estival de football créé en août 1997 et qui se joue en Italie à Udine et qui est sponsorisé par la brasserie Birra Moretti. 
 Ce tournoi n'est pas organisé par la FIGC et n'est donc pas un tournoi officiel.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Troph%C3%A9e_Birra_Moretti</t>
+          <t>Trophée_Birra_Moretti</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Participations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Au fil des ans, 11 équipes furent invitées à participer au tournoi (10 italiennes et une anglaise).
 La Juventus et l'Inter sont les équipes ayant le plus été invités.
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Troph%C3%A9e_Birra_Moretti</t>
+          <t>Trophée_Birra_Moretti</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,6 +569,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Troph%C3%A9e_Birra_Moretti</t>
+          <t>Trophée_Birra_Moretti</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Victoires par équipe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Juventus : 6 (1997, 2000, 2003, 2004, 2006, 2008)
  Inter : 3 (2001, 2002, 2007)
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Troph%C3%A9e_Birra_Moretti</t>
+          <t>Trophée_Birra_Moretti</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Anecdotes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le meilleur buteur toutes éditions confondues est Christian Vieri, qui a inscrit 6 buts tous sous le maillot de l'Inter Milan.
 L'édition 2009 n'a pas eu lieu car il s'agissait du 150e anniversaire de la Heineken Italia.</t>
